--- a/Git Excel.xlsx
+++ b/Git Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63b755f474d81803/Desktop/Git Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104815B1DA63305BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{167C1288-92D7-4D57-9233-EC12490DD3C4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC104815B1DA63305BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7268C705-FE77-4DC1-A5DD-A59858A99B48}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,6 +72,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,10 +341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,6 +357,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
